--- a/res/page/车场运营/月票管理/MonthTicketTypePage.xlsx
+++ b/res/page/车场运营/月票管理/MonthTicketTypePage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10365"/>
+    <workbookView windowWidth="21600" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="87">
   <si>
     <t>别名</t>
   </si>
@@ -45,13 +45,13 @@
     <t>对内创建月票</t>
   </si>
   <si>
-    <t>//*[@id="app"]//a[contains(text(), "创建对内月票")]</t>
+    <t>//*[@id="app"]//a[contains(text(), "创建本地月票")]</t>
   </si>
   <si>
     <t>对外创建月票</t>
   </si>
   <si>
-    <t>//*[@id="app"]//a[contains(text(), "创建对外月票")]</t>
+    <t>//*[@id="app"]//a[contains(text(), "创建线上月票")]</t>
   </si>
   <si>
     <t>上架</t>
@@ -93,7 +93,7 @@
     <t>搜索框</t>
   </si>
   <si>
-    <t>//input[@placeholder='月票名称']</t>
+    <t>//input[@placeholder='月票类型名称']</t>
   </si>
   <si>
     <t>搜索按钮</t>
@@ -129,7 +129,7 @@
     <t>月票名称</t>
   </si>
   <si>
-    <t>//*[@id="app"]//div[@class='modal-container']//label[contains(text(),'月票名称')]/following-sibling::*[1]//input</t>
+    <t>//*[@id="app"]//div[@class='modal-container']//label[contains(text(),'月票类型名称')]/following-sibling::*[1]//input</t>
   </si>
   <si>
     <t>简介</t>
@@ -284,10 +284,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -318,7 +318,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,6 +363,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -340,36 +393,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,14 +417,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -400,15 +426,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,45 +460,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -476,13 +476,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,109 +620,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,55 +656,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,17 +685,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -745,7 +754,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,30 +782,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -790,10 +790,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -802,133 +802,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1304,8 +1304,8 @@
   <sheetPr/>
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/res/page/车场运营/月票管理/MonthTicketTypePage.xlsx
+++ b/res/page/车场运营/月票管理/MonthTicketTypePage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="79">
   <si>
     <t>别名</t>
   </si>
@@ -42,16 +42,28 @@
     <t>//ul[@role='menubar']//span[contains(text(),'月票类型')]</t>
   </si>
   <si>
-    <t>对内创建月票</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]//a[contains(text(), "创建本地月票")]</t>
-  </si>
-  <si>
-    <t>对外创建月票</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]//a[contains(text(), "创建线上月票")]</t>
+    <t>创建月票</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]//a[contains(text(), "创建月票")]</t>
+  </si>
+  <si>
+    <t>云停车场</t>
+  </si>
+  <si>
+    <t>//div[@class='parking-lot-type']/span[text()='云停车场']</t>
+  </si>
+  <si>
+    <t>传统停车场</t>
+  </si>
+  <si>
+    <t>//div[@class='parking-lot-type']/span[text()='传统停车场']</t>
+  </si>
+  <si>
+    <t>路边停车场</t>
+  </si>
+  <si>
+    <t>//div[@class='parking-lot-type']/span[text()='路边停车场']</t>
   </si>
   <si>
     <t>上架</t>
@@ -126,22 +138,16 @@
     <t>//*[@id="app"]//label[contains(text(),'车场类型')]/following-sibling::*[1]</t>
   </si>
   <si>
-    <t>月票名称</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]//div[@class='modal-container']//label[contains(text(),'月票类型名称')]/following-sibling::*[1]//input</t>
-  </si>
-  <si>
-    <t>简介</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]//div[@class='modal-container']//label[contains(text(),'简介')]/following-sibling::*[1]//textarea</t>
-  </si>
-  <si>
-    <t>支持停车场</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]//div[@class='modal-container']//label[contains(text(),'支持停车场')]/following-sibling::*[1]//button</t>
+    <t>类型名称</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]//div[@class='main-content']//label[contains(text(),'类型名称')]/following-sibling::*[1]//input</t>
+  </si>
+  <si>
+    <t>支持车场</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]//div[@class='main-content']//label[contains(text(),'支持车场')]/following-sibling::*[1]//button</t>
   </si>
   <si>
     <t>选择停车场列表</t>
@@ -153,49 +159,19 @@
     <t>财务主体</t>
   </si>
   <si>
-    <t>//label[contains(text(),'支持停车场')]/following-sibling::*[1]//input[@class='financialParkId']</t>
-  </si>
-  <si>
-    <t>支持授权车牌数</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]//label[contains(text(),'支持授权车牌数')]/following-sibling::*[1]//input</t>
-  </si>
-  <si>
-    <t>可售时间</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]//label[contains(text(),'可销售时间')]/following-sibling::*[1]//input</t>
-  </si>
-  <si>
-    <t>后一天</t>
-  </si>
-  <si>
-    <t>//div[@class='el-picker-panel__sidebar']/button[contains(text(),'后一天')]</t>
-  </si>
-  <si>
-    <t>后一周</t>
-  </si>
-  <si>
-    <t>//div[@class='el-picker-panel__sidebar']/button[contains(text(),'后一周')]</t>
-  </si>
-  <si>
-    <t>允许车主向前续费</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]//label[contains(text(),'允许车主向前续费')]/following-sibling::*[1]//input</t>
-  </si>
-  <si>
-    <t>有效期类型</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]//label[contains(text(),'有效期类型')]/following-sibling::*[1]//input</t>
-  </si>
-  <si>
-    <t>有效期</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]//label[contains(text(),'有效期')]/following-sibling::*[1]//input[@placeholder='请选择有效期']</t>
+    <t>//label[contains(text(),'财务主体')]/following-sibling::*[1]//span[@class='el-radio__input']</t>
+  </si>
+  <si>
+    <t>授权车牌数</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]//label[contains(text(),'授权车牌数')]/following-sibling::*[1]//input</t>
+  </si>
+  <si>
+    <t>向前续费</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]//label[contains(text(),'向前续费')]/following-sibling::*[1]//input</t>
   </si>
   <si>
     <t>续费方式</t>
@@ -204,22 +180,22 @@
     <t>//*[@id="app"]//label[contains(text(),'续费方式')]/following-sibling::*[1]</t>
   </si>
   <si>
-    <t>单价</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]//label[@for='price']/following-sibling::*[1]//input[@placeholder='请输入单价']</t>
+    <t>月票单价</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]//label[@for='price']/following-sibling::*[1]//input[@placeholder='请输入月票单价']</t>
   </si>
   <si>
     <t>月票数量</t>
   </si>
   <si>
-    <t>//*[@id="app"]//label[contains(text(),'月票数量')]/following-sibling::*[1]//input</t>
+    <t>//*[@id="app"]//label[contains(text(),'月票数量')]/following-sibling::*[1]//input[@placeholder='请选择']</t>
   </si>
   <si>
     <t>备注</t>
   </si>
   <si>
-    <t>//*[@id="app"]//label[contains(text(),'备注')]/following-sibling::*[1]//textarea</t>
+    <t>//*[@id="app"]//div[@class='main-content']//label[contains(text(),'备注')]/following-sibling::*[1]//textarea</t>
   </si>
   <si>
     <t>操作成功-提示</t>
@@ -284,10 +260,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -324,6 +300,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -333,17 +377,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -356,48 +393,25 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -409,17 +423,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,35 +436,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -488,19 +464,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,151 +632,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,26 +661,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -719,6 +686,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -741,10 +723,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -759,21 +739,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -782,6 +747,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -790,145 +766,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1302,10 +1278,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1525,7 +1501,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="27" customHeight="1" spans="1:3">
+    <row r="20" s="1" customFormat="1" ht="29" customHeight="1" spans="1:3">
       <c r="A20" s="3" t="s">
         <v>40</v>
       </c>
@@ -1603,7 +1579,7 @@
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="27" customHeight="1" spans="1:3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -1614,7 +1590,7 @@
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="27" customHeight="1" spans="1:3">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -1625,7 +1601,7 @@
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="27" customHeight="1" spans="1:3">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -1635,7 +1611,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="27" customHeight="1" spans="1:3">
+    <row r="30" s="1" customFormat="1" ht="24" customHeight="1" spans="1:3">
       <c r="A30" s="3" t="s">
         <v>60</v>
       </c>
@@ -1646,8 +1622,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="27" customHeight="1" spans="1:3">
-      <c r="A31" s="5" t="s">
+    <row r="31" s="1" customFormat="1" ht="24" customHeight="1" spans="1:3">
+      <c r="A31" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -1657,8 +1633,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="27" customHeight="1" spans="1:3">
-      <c r="A32" s="5" t="s">
+    <row r="32" s="1" customFormat="1" ht="24" customHeight="1" spans="1:3">
+      <c r="A32" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -1668,8 +1644,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="27" customHeight="1" spans="1:3">
-      <c r="A33" s="6" t="s">
+    <row r="33" s="1" customFormat="1" ht="24" customHeight="1" spans="1:3">
+      <c r="A33" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -1731,62 +1707,18 @@
         <v>4</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" ht="24" customHeight="1" spans="1:3">
       <c r="A39" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" s="1" customFormat="1" ht="24" customHeight="1" spans="1:3">
-      <c r="A40" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" s="1" customFormat="1" ht="24" customHeight="1" spans="1:3">
-      <c r="A41" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" s="1" customFormat="1" ht="24" customHeight="1" spans="1:3">
-      <c r="A42" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" s="1" customFormat="1" ht="24" customHeight="1" spans="1:3">
-      <c r="A43" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
